--- a/GDCT-driven/E.ModelImplementation/Results_Min_P_losses/comp_burn_SSCOPF_Min_P_losses.xlsx
+++ b/GDCT-driven/E.ModelImplementation/Results_Min_P_losses/comp_burn_SSCOPF_Min_P_losses.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" uniqueCount="2">
   <si>
     <t>time</t>
   </si>
@@ -84,7 +84,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.51859699999999997</v>
+        <v>0.53416050000000004</v>
       </c>
       <c r="B2" s="0">
         <v>25</v>
@@ -92,7 +92,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1833854</v>
+        <v>0.1722127</v>
       </c>
       <c r="B3" s="0">
         <v>19</v>
@@ -100,7 +100,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.27950649999999999</v>
+        <v>0.2493464</v>
       </c>
       <c r="B4" s="0">
         <v>29</v>
@@ -108,7 +108,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.19256239999999999</v>
+        <v>0.20652180000000001</v>
       </c>
       <c r="B5" s="0">
         <v>25</v>
@@ -116,7 +116,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.2477972</v>
+        <v>0.2553549</v>
       </c>
       <c r="B6" s="0">
         <v>26</v>
@@ -124,7 +124,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.118739</v>
+        <v>0.13361419999999999</v>
       </c>
       <c r="B7" s="0">
         <v>21</v>
@@ -132,7 +132,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1550067</v>
+        <v>0.1522666</v>
       </c>
       <c r="B8" s="0">
         <v>27</v>
@@ -140,7 +140,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16293779999999999</v>
+        <v>0.17019780000000001</v>
       </c>
       <c r="B9" s="0">
         <v>27</v>
@@ -148,7 +148,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.17301549999999999</v>
+        <v>0.182866</v>
       </c>
       <c r="B10" s="0">
         <v>25</v>
@@ -156,7 +156,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.25842159999999997</v>
+        <v>0.264048</v>
       </c>
       <c r="B11" s="0">
         <v>40</v>
@@ -164,7 +164,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.12209440000000001</v>
+        <v>0.126639</v>
       </c>
       <c r="B12" s="0">
         <v>23</v>
@@ -172,7 +172,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.14279929999999999</v>
+        <v>0.14624970000000001</v>
       </c>
       <c r="B13" s="0">
         <v>26</v>
@@ -180,7 +180,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1386396</v>
+        <v>0.11571819999999999</v>
       </c>
       <c r="B14" s="0">
         <v>23</v>
@@ -188,7 +188,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.17751710000000001</v>
+        <v>0.14365459999999999</v>
       </c>
       <c r="B15" s="0">
         <v>25</v>
@@ -196,7 +196,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2229652</v>
+        <v>0.13948859999999999</v>
       </c>
       <c r="B16" s="0">
         <v>28</v>
@@ -204,7 +204,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.23010410000000001</v>
+        <v>0.1390402</v>
       </c>
       <c r="B17" s="0">
         <v>25</v>
@@ -212,7 +212,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3835402</v>
+        <v>0.18621219999999999</v>
       </c>
       <c r="B18" s="0">
         <v>31</v>
@@ -220,7 +220,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.27700999999999998</v>
+        <v>0.14608299999999999</v>
       </c>
       <c r="B19" s="0">
         <v>21</v>
@@ -228,7 +228,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.32408429999999999</v>
+        <v>0.15858159999999999</v>
       </c>
       <c r="B20" s="0">
         <v>24</v>
@@ -236,7 +236,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44063350000000001</v>
+        <v>0.2119287</v>
       </c>
       <c r="B21" s="0">
         <v>36</v>
@@ -244,7 +244,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3493349</v>
+        <v>0.19291030000000001</v>
       </c>
       <c r="B22" s="0">
         <v>30</v>
@@ -252,7 +252,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.27066570000000001</v>
+        <v>0.1174172</v>
       </c>
       <c r="B23" s="0">
         <v>23</v>
@@ -260,7 +260,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2479094</v>
+        <v>0.1463768</v>
       </c>
       <c r="B24" s="0">
         <v>27</v>
@@ -268,7 +268,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1912191</v>
+        <v>0.1287942</v>
       </c>
       <c r="B25" s="0">
         <v>25</v>
@@ -276,7 +276,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.36864970000000002</v>
+        <v>0.1294836</v>
       </c>
       <c r="B26" s="0">
         <v>24</v>
@@ -284,7 +284,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.57010959999999999</v>
+        <v>0.14757899999999999</v>
       </c>
       <c r="B27" s="0">
         <v>29</v>
@@ -292,7 +292,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.31464330000000001</v>
+        <v>0.1442176</v>
       </c>
       <c r="B28" s="0">
         <v>26</v>
@@ -300,7 +300,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.35018199999999999</v>
+        <v>0.1728431</v>
       </c>
       <c r="B29" s="0">
         <v>32</v>
@@ -308,7 +308,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.44348569999999998</v>
+        <v>0.15116250000000001</v>
       </c>
       <c r="B30" s="0">
         <v>27</v>
@@ -316,7 +316,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9329828</v>
+        <v>0.18863170000000001</v>
       </c>
       <c r="B31" s="0">
         <v>34</v>
@@ -324,7 +324,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.41610439999999999</v>
+        <v>0.1289806</v>
       </c>
       <c r="B32" s="0">
         <v>24</v>
@@ -332,7 +332,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.40215279999999998</v>
+        <v>0.1387584</v>
       </c>
       <c r="B33" s="0">
         <v>25</v>
@@ -340,7 +340,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.45836660000000001</v>
+        <v>0.1452299</v>
       </c>
       <c r="B34" s="0">
         <v>25</v>
@@ -348,7 +348,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.25403799999999999</v>
+        <v>0.12616250000000001</v>
       </c>
       <c r="B35" s="0">
         <v>23</v>
@@ -356,7 +356,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.38757950000000002</v>
+        <v>0.16889979999999999</v>
       </c>
       <c r="B36" s="0">
         <v>26</v>
@@ -364,7 +364,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.36877599999999999</v>
+        <v>0.1741325</v>
       </c>
       <c r="B37" s="0">
         <v>29</v>
@@ -372,7 +372,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.5961033</v>
+        <v>0.19869870000000001</v>
       </c>
       <c r="B38" s="0">
         <v>36</v>
@@ -380,7 +380,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.36129620000000001</v>
+        <v>0.14179259999999999</v>
       </c>
       <c r="B39" s="0">
         <v>23</v>
@@ -388,7 +388,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.3891696</v>
+        <v>0.1598397</v>
       </c>
       <c r="B40" s="0">
         <v>26</v>
@@ -396,7 +396,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.2859873</v>
+        <v>0.12359340000000001</v>
       </c>
       <c r="B41" s="0">
         <v>20</v>
@@ -404,7 +404,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.39278540000000001</v>
+        <v>0.15876219999999999</v>
       </c>
       <c r="B42" s="0">
         <v>24</v>
@@ -412,7 +412,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.3104461</v>
+        <v>0.1204923</v>
       </c>
       <c r="B43" s="0">
         <v>18</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.4106687</v>
+        <v>0.14317940000000001</v>
       </c>
       <c r="B44" s="0">
         <v>23</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.32963320000000002</v>
+        <v>0.18196709999999999</v>
       </c>
       <c r="B45" s="0">
         <v>31</v>
@@ -436,7 +436,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.31042350000000002</v>
+        <v>0.1488333</v>
       </c>
       <c r="B46" s="0">
         <v>27</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.24045859999999999</v>
+        <v>0.14072999999999999</v>
       </c>
       <c r="B47" s="0">
         <v>23</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.2323732</v>
+        <v>0.1438248</v>
       </c>
       <c r="B48" s="0">
         <v>25</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.21980910000000001</v>
+        <v>0.121739</v>
       </c>
       <c r="B49" s="0">
         <v>24</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.21741050000000001</v>
+        <v>0.1124415</v>
       </c>
       <c r="B50" s="0">
         <v>24</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.31277579999999999</v>
+        <v>0.19382379999999999</v>
       </c>
       <c r="B51" s="0">
         <v>38</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.1675943</v>
+        <v>0.1083571</v>
       </c>
       <c r="B52" s="0">
         <v>20</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.1820531</v>
+        <v>0.1161249</v>
       </c>
       <c r="B53" s="0">
         <v>23</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.24045720000000001</v>
+        <v>0.14960300000000001</v>
       </c>
       <c r="B54" s="0">
         <v>29</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.2188793</v>
+        <v>0.1439802</v>
       </c>
       <c r="B55" s="0">
         <v>27</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.22496740000000001</v>
+        <v>0.11763759999999999</v>
       </c>
       <c r="B56" s="0">
         <v>24</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.20011770000000001</v>
+        <v>0.1261948</v>
       </c>
       <c r="B57" s="0">
         <v>22</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.24721109999999999</v>
+        <v>0.18777659999999999</v>
       </c>
       <c r="B58" s="0">
         <v>28</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.25002210000000002</v>
+        <v>0.1695065</v>
       </c>
       <c r="B59" s="0">
         <v>25</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.23988780000000001</v>
+        <v>0.17633399999999999</v>
       </c>
       <c r="B60" s="0">
         <v>26</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.24688270000000001</v>
+        <v>0.18428059999999999</v>
       </c>
       <c r="B61" s="0">
         <v>28</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.22250349999999999</v>
+        <v>0.14915129999999999</v>
       </c>
       <c r="B62" s="0">
         <v>28</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.18501670000000001</v>
+        <v>0.1230735</v>
       </c>
       <c r="B63" s="0">
         <v>23</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.20275480000000001</v>
+        <v>0.11122750000000001</v>
       </c>
       <c r="B64" s="0">
         <v>22</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.21388450000000001</v>
+        <v>0.13585559999999999</v>
       </c>
       <c r="B65" s="0">
         <v>26</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.21132000000000001</v>
+        <v>0.13011059999999999</v>
       </c>
       <c r="B66" s="0">
         <v>26</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.2132571</v>
+        <v>0.1327084</v>
       </c>
       <c r="B67" s="0">
         <v>27</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.17865980000000001</v>
+        <v>0.1174723</v>
       </c>
       <c r="B68" s="0">
         <v>22</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.23940729999999999</v>
+        <v>0.1664223</v>
       </c>
       <c r="B69" s="0">
         <v>27</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.20511740000000001</v>
+        <v>0.1333829</v>
       </c>
       <c r="B70" s="0">
         <v>25</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.1933079</v>
+        <v>0.10948869999999999</v>
       </c>
       <c r="B71" s="0">
         <v>21</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.2085737</v>
+        <v>0.1345539</v>
       </c>
       <c r="B72" s="0">
         <v>26</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.24810370000000001</v>
+        <v>0.13953969999999999</v>
       </c>
       <c r="B73" s="0">
         <v>27</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.25473519999999999</v>
+        <v>0.14645730000000001</v>
       </c>
       <c r="B74" s="0">
         <v>26</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.24547749999999999</v>
+        <v>0.13390170000000001</v>
       </c>
       <c r="B75" s="0">
         <v>25</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.2296367</v>
+        <v>0.14525640000000001</v>
       </c>
       <c r="B76" s="0">
         <v>27</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.25068309999999999</v>
+        <v>0.15618270000000001</v>
       </c>
       <c r="B77" s="0">
         <v>29</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.21307309999999999</v>
+        <v>0.13904759999999999</v>
       </c>
       <c r="B78" s="0">
         <v>26</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.18658440000000001</v>
+        <v>0.12925829999999999</v>
       </c>
       <c r="B79" s="0">
         <v>25</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.1789211</v>
+        <v>0.12615889999999999</v>
       </c>
       <c r="B80" s="0">
         <v>23</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.17458209999999999</v>
+        <v>0.1138063</v>
       </c>
       <c r="B81" s="0">
         <v>22</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.2434528</v>
+        <v>0.1589873</v>
       </c>
       <c r="B82" s="0">
         <v>28</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.2126586</v>
+        <v>0.13400980000000001</v>
       </c>
       <c r="B83" s="0">
         <v>26</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.19817509999999999</v>
+        <v>0.1377591</v>
       </c>
       <c r="B84" s="0">
         <v>26</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.18597050000000001</v>
+        <v>0.15880929999999999</v>
       </c>
       <c r="B85" s="0">
         <v>22</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.18691340000000001</v>
+        <v>0.12610489999999999</v>
       </c>
       <c r="B86" s="0">
         <v>24</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.18590760000000001</v>
+        <v>0.14016190000000001</v>
       </c>
       <c r="B87" s="0">
         <v>26</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.1668171</v>
+        <v>0.1164094</v>
       </c>
       <c r="B88" s="0">
         <v>22</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.1783158</v>
+        <v>0.12070069999999999</v>
       </c>
       <c r="B89" s="0">
         <v>24</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.2063535</v>
+        <v>0.13262060000000001</v>
       </c>
       <c r="B90" s="0">
         <v>26</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.15678880000000001</v>
+        <v>0.095900100000000002</v>
       </c>
       <c r="B91" s="0">
         <v>19</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.2178698</v>
+        <v>0.1284566</v>
       </c>
       <c r="B92" s="0">
         <v>25</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.17550279999999999</v>
+        <v>0.11544210000000001</v>
       </c>
       <c r="B93" s="0">
         <v>22</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.25352940000000002</v>
+        <v>0.1695547</v>
       </c>
       <c r="B94" s="0">
         <v>31</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.20723530000000001</v>
+        <v>0.14214879999999999</v>
       </c>
       <c r="B95" s="0">
         <v>27</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.29304980000000003</v>
+        <v>0.19849539999999999</v>
       </c>
       <c r="B96" s="0">
         <v>37</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.15740280000000001</v>
+        <v>0.096549999999999997</v>
       </c>
       <c r="B97" s="0">
         <v>19</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.20136799999999999</v>
+        <v>0.12725729999999999</v>
       </c>
       <c r="B98" s="0">
         <v>24</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.23209379999999999</v>
+        <v>0.13104460000000001</v>
       </c>
       <c r="B99" s="0">
         <v>23</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.19713629999999999</v>
+        <v>0.14426700000000001</v>
       </c>
       <c r="B100" s="0">
         <v>28</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.2330448</v>
+        <v>0.16652040000000001</v>
       </c>
       <c r="B101" s="0">
         <v>32</v>
